--- a/Talc-Database.xlsx
+++ b/Talc-Database.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikea\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Dropbox\Database Publication\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C5F6561-1528-441B-A67C-0D2CE5CD8648}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="67">
   <si>
     <t>Mw</t>
   </si>
@@ -191,12 +190,48 @@
   <si>
     <t>Polymer International</t>
   </si>
+  <si>
+    <t>Compatiblizer</t>
+  </si>
+  <si>
+    <t>Surface Treatment</t>
+  </si>
+  <si>
+    <t>Film Formation</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>triethoxy(vinyl)silane</t>
+  </si>
+  <si>
+    <t>aminopropyl-trimethoxysilane</t>
+  </si>
+  <si>
+    <t>octadecyltriethoxysilane</t>
+  </si>
+  <si>
+    <t>acetoxy</t>
+  </si>
+  <si>
+    <t>Injection</t>
+  </si>
+  <si>
+    <t>Compression</t>
+  </si>
+  <si>
+    <t>Blown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,13 +249,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,8 +287,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,20 +602,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W130" sqref="W130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="18.28515625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.7109375" style="2"/>
+    <col min="1" max="1" width="18.26953125" style="2" customWidth="1"/>
+    <col min="2" max="5" width="18.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="0" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="20.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="24.36328125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="21" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="22.36328125" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="20.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="19.90625" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="24.90625" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="22.6328125" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6328125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="29" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.6328125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="20.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -637,10 +680,19 @@
         <v>10</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -689,11 +741,14 @@
       <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="S2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T2" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -742,11 +797,14 @@
       <c r="P3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T3" s="2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -795,11 +853,14 @@
       <c r="P4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -848,11 +909,14 @@
       <c r="P5" s="2">
         <v>22.2</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" s="2">
         <v>1.19</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -901,11 +965,14 @@
       <c r="P6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T6" s="2">
         <v>1.31</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -954,11 +1021,14 @@
       <c r="P7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T7" s="2">
         <v>1.43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1007,11 +1077,14 @@
       <c r="P8" s="2">
         <v>15.2</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="2">
         <v>1.71</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1060,11 +1133,14 @@
       <c r="P9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T9" s="2">
         <v>1.81</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1113,11 +1189,14 @@
       <c r="P10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="2">
         <v>1.86</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1166,11 +1245,14 @@
       <c r="P11" s="2">
         <v>15.4</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T11" s="2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1219,11 +1301,14 @@
       <c r="P12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="S12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="2">
         <v>2.21</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1272,11 +1357,14 @@
       <c r="P13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="S13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T13" s="2">
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1325,11 +1413,14 @@
       <c r="P14" s="2">
         <v>18.2</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="S14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T14" s="2">
         <v>3.04</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1378,11 +1469,14 @@
       <c r="P15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="S15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T15" s="2">
         <v>3.1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1431,11 +1525,14 @@
       <c r="P16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="S16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T16" s="2">
         <v>3.11</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
@@ -1484,11 +1581,14 @@
       <c r="P17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="S17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T17" s="2">
         <v>1.85</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -1537,11 +1637,14 @@
       <c r="P18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="S18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T18" s="2">
         <v>1.87</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1590,11 +1693,17 @@
       <c r="P19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="R19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T19" s="2">
         <v>1.97</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1643,11 +1752,14 @@
       <c r="P20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T20" s="2">
         <v>2.29</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -1696,11 +1808,14 @@
       <c r="P21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="S21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T21" s="2">
         <v>1.76</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
@@ -1749,11 +1864,14 @@
       <c r="P22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="S22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T22" s="2">
         <v>3.17</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1802,11 +1920,14 @@
       <c r="P23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T23" s="2">
         <v>4.07</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>16</v>
       </c>
@@ -1855,11 +1976,14 @@
       <c r="P24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="S24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T24" s="2">
         <v>5.35</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>16</v>
       </c>
@@ -1908,11 +2032,14 @@
       <c r="P25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="S25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T25" s="2">
         <v>5.86</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>16</v>
       </c>
@@ -1961,11 +2088,17 @@
       <c r="P26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="2">
+      <c r="R26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T26" s="2">
         <v>1.76</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>16</v>
       </c>
@@ -2014,11 +2147,17 @@
       <c r="P27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="R27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T27" s="2">
         <v>3.17</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>16</v>
       </c>
@@ -2067,11 +2206,17 @@
       <c r="P28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="R28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T28" s="2">
         <v>3.99</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>16</v>
       </c>
@@ -2120,11 +2265,17 @@
       <c r="P29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q29" s="2">
+      <c r="R29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T29" s="2">
         <v>5.12</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
@@ -2173,11 +2324,17 @@
       <c r="P30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="2">
+      <c r="R30" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T30" s="2">
         <v>6.35</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>17</v>
       </c>
@@ -2226,11 +2383,14 @@
       <c r="P31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q31" s="2">
+      <c r="S31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T31" s="2">
         <v>0.67</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>17</v>
       </c>
@@ -2279,11 +2439,14 @@
       <c r="P32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="2">
+      <c r="S32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T32" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>17</v>
       </c>
@@ -2332,11 +2495,14 @@
       <c r="P33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q33" s="2">
+      <c r="S33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T33" s="2">
         <v>1.04</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
@@ -2385,11 +2551,14 @@
       <c r="P34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="2">
+      <c r="S34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T34" s="2">
         <v>1.25</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>18</v>
       </c>
@@ -2438,11 +2607,14 @@
       <c r="P35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q35" s="2">
+      <c r="S35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T35" s="2">
         <v>2.94</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
@@ -2491,11 +2663,14 @@
       <c r="P36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="S36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T36" s="2">
         <v>3.46</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>18</v>
       </c>
@@ -2544,12 +2719,15 @@
       <c r="P37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="S37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T37" s="2">
         <v>4.55</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="3">
@@ -2597,11 +2775,14 @@
       <c r="P38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T38" s="2">
         <v>5.17</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>19</v>
       </c>
@@ -2651,11 +2832,14 @@
       <c r="P39" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q39" s="2">
+      <c r="S39" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T39" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -2705,11 +2889,14 @@
       <c r="P40" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="2">
+      <c r="S40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T40" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>19</v>
       </c>
@@ -2759,11 +2946,14 @@
       <c r="P41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q41" s="2">
+      <c r="S41" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T41" s="2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>19</v>
       </c>
@@ -2813,11 +3003,14 @@
       <c r="P42" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q42" s="2">
+      <c r="S42" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T42" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
@@ -2867,11 +3060,14 @@
       <c r="P43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q43" s="2">
+      <c r="S43" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T43" s="2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -2920,11 +3116,14 @@
       <c r="P44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q44" s="2">
+      <c r="S44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T44" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>20</v>
       </c>
@@ -2973,11 +3172,14 @@
       <c r="P45" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q45" s="2">
+      <c r="S45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T45" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>20</v>
       </c>
@@ -3026,11 +3228,14 @@
       <c r="P46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q46" s="2">
+      <c r="S46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T46" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>20</v>
       </c>
@@ -3079,11 +3284,14 @@
       <c r="P47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q47" s="2">
+      <c r="S47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T47" s="2">
         <v>4.7</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>20</v>
       </c>
@@ -3132,11 +3340,14 @@
       <c r="P48" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q48" s="2">
+      <c r="S48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T48" s="2">
         <v>5.6</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>20</v>
       </c>
@@ -3185,11 +3396,14 @@
       <c r="P49" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q49" s="2">
+      <c r="S49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T49" s="2">
         <v>6.3</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>20</v>
       </c>
@@ -3238,11 +3452,14 @@
       <c r="P50" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q50" s="2">
+      <c r="S50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T50" s="2">
         <v>6.9</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
@@ -3291,11 +3508,14 @@
       <c r="P51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q51" s="2">
+      <c r="S51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T51" s="2">
         <v>1.32</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>21</v>
       </c>
@@ -3344,11 +3564,14 @@
       <c r="P52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q52" s="2">
+      <c r="S52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T52" s="2">
         <v>1.37</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
@@ -3397,11 +3620,14 @@
       <c r="P53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q53" s="2">
+      <c r="S53" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T53" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
@@ -3450,11 +3676,14 @@
       <c r="P54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="S54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T54" s="2">
         <v>1.56</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
@@ -3503,11 +3732,14 @@
       <c r="P55" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q55" s="2">
+      <c r="S55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T55" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>22</v>
       </c>
@@ -3556,11 +3788,14 @@
       <c r="P56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q56" s="2">
+      <c r="S56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T56" s="2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>22</v>
       </c>
@@ -3609,11 +3844,14 @@
       <c r="P57" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="S57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T57" s="2">
         <v>1.7</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>22</v>
       </c>
@@ -3662,11 +3900,14 @@
       <c r="P58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q58" s="2">
+      <c r="S58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T58" s="2">
         <v>1.9</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>22</v>
       </c>
@@ -3715,11 +3956,14 @@
       <c r="P59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q59" s="2">
+      <c r="S59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T59" s="2">
         <v>1.8</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>22</v>
       </c>
@@ -3768,11 +4012,14 @@
       <c r="P60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q60" s="2">
+      <c r="S60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T60" s="2">
         <v>1.9</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>22</v>
       </c>
@@ -3821,11 +4068,14 @@
       <c r="P61" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q61" s="2">
+      <c r="S61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T61" s="2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>22</v>
       </c>
@@ -3874,11 +4124,14 @@
       <c r="P62" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q62" s="2">
+      <c r="S62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T62" s="2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>22</v>
       </c>
@@ -3927,11 +4180,14 @@
       <c r="P63" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q63" s="2">
+      <c r="S63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T63" s="2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>22</v>
       </c>
@@ -3980,11 +4236,14 @@
       <c r="P64" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q64" s="2">
+      <c r="S64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T64" s="2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>23</v>
       </c>
@@ -4033,11 +4292,14 @@
       <c r="P65" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q65" s="2">
+      <c r="S65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T65" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>23</v>
       </c>
@@ -4086,11 +4348,14 @@
       <c r="P66" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q66" s="2">
+      <c r="S66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T66" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>23</v>
       </c>
@@ -4139,11 +4404,14 @@
       <c r="P67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q67" s="2">
+      <c r="S67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T67" s="2">
         <v>1.3</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>23</v>
       </c>
@@ -4192,11 +4460,14 @@
       <c r="P68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q68" s="2">
+      <c r="S68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T68" s="2">
         <v>1.4</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>23</v>
       </c>
@@ -4245,11 +4516,14 @@
       <c r="P69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q69" s="2">
+      <c r="S69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T69" s="2">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>23</v>
       </c>
@@ -4298,11 +4572,14 @@
       <c r="P70" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q70" s="2">
+      <c r="S70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T70" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>24</v>
       </c>
@@ -4351,11 +4628,14 @@
       <c r="P71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q71" s="2">
+      <c r="S71" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T71" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>24</v>
       </c>
@@ -4404,11 +4684,14 @@
       <c r="P72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q72" s="2">
+      <c r="S72" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T72" s="2">
         <v>1.4</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>24</v>
       </c>
@@ -4457,11 +4740,14 @@
       <c r="P73" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q73" s="2">
+      <c r="S73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T73" s="2">
         <v>1.6</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>24</v>
       </c>
@@ -4510,11 +4796,14 @@
       <c r="P74" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q74" s="2">
+      <c r="S74" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T74" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>24</v>
       </c>
@@ -4563,11 +4852,14 @@
       <c r="P75" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q75" s="2">
+      <c r="S75" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T75" s="2">
         <v>3.2</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>25</v>
       </c>
@@ -4616,11 +4908,14 @@
       <c r="P76" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q76" s="2">
+      <c r="S76" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T76" s="2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>25</v>
       </c>
@@ -4669,11 +4964,14 @@
       <c r="P77" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q77" s="2">
+      <c r="S77" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T77" s="2">
         <v>4.3099999999999996</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>26</v>
       </c>
@@ -4722,11 +5020,17 @@
       <c r="P78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q78" s="2">
+      <c r="R78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T78" s="2">
         <v>1.623</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>26</v>
       </c>
@@ -4775,11 +5079,17 @@
       <c r="P79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q79" s="2">
+      <c r="R79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S79" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T79" s="2">
         <v>1.694</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>26</v>
       </c>
@@ -4828,11 +5138,17 @@
       <c r="P80" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T80" s="2">
         <v>1.7929999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>26</v>
       </c>
@@ -4881,11 +5197,17 @@
       <c r="P81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q81" s="2">
+      <c r="R81" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T81" s="2">
         <v>1.8859999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>26</v>
       </c>
@@ -4934,11 +5256,17 @@
       <c r="P82" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q82" s="2">
+      <c r="R82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S82" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T82" s="2">
         <v>2.0409999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>26</v>
       </c>
@@ -4987,11 +5315,17 @@
       <c r="P83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q83" s="2">
+      <c r="R83" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S83" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T83" s="2">
         <v>1.7609999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>26</v>
       </c>
@@ -5040,11 +5374,17 @@
       <c r="P84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q84" s="2">
+      <c r="R84" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S84" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T84" s="2">
         <v>1.871</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>26</v>
       </c>
@@ -5093,11 +5433,17 @@
       <c r="P85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q85" s="2">
+      <c r="R85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T85" s="2">
         <v>1.9910000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>26</v>
       </c>
@@ -5146,11 +5492,17 @@
       <c r="P86" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q86" s="2">
+      <c r="R86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T86" s="2">
         <v>2.3319999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>27</v>
       </c>
@@ -5160,7 +5512,7 @@
       <c r="C87" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="5">
         <v>2.3239999999999998</v>
       </c>
       <c r="E87" s="2">
@@ -5200,11 +5552,17 @@
       <c r="P87" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q87" s="2">
+      <c r="Q87" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T87" s="2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>27</v>
       </c>
@@ -5214,7 +5572,7 @@
       <c r="C88" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="5">
         <v>2.3239999999999998</v>
       </c>
       <c r="E88" s="2">
@@ -5254,11 +5612,17 @@
       <c r="P88" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q88" s="2">
+      <c r="Q88" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T88" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>27</v>
       </c>
@@ -5268,7 +5632,7 @@
       <c r="C89" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="5">
         <v>2.3239999999999998</v>
       </c>
       <c r="E89" s="2">
@@ -5308,11 +5672,17 @@
       <c r="P89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q89" s="2">
+      <c r="Q89" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S89" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T89" s="2">
         <v>1.4</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>27</v>
       </c>
@@ -5322,7 +5692,7 @@
       <c r="C90" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="5">
         <v>2.3239999999999998</v>
       </c>
       <c r="E90" s="2">
@@ -5362,11 +5732,17 @@
       <c r="P90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q90" s="2">
+      <c r="Q90" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S90" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T90" s="2">
         <v>2.1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>27</v>
       </c>
@@ -5376,7 +5752,7 @@
       <c r="C91" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="5">
         <v>2.3239999999999998</v>
       </c>
       <c r="E91" s="2">
@@ -5416,11 +5792,17 @@
       <c r="P91" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q91" s="2">
+      <c r="Q91" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="S91" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T91" s="2">
         <v>2.8</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>28</v>
       </c>
@@ -5470,11 +5852,14 @@
       <c r="P92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q92" s="2">
+      <c r="S92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T92" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>28</v>
       </c>
@@ -5524,11 +5909,14 @@
       <c r="P93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q93" s="2">
+      <c r="S93" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T93" s="2">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>29</v>
       </c>
@@ -5577,11 +5965,14 @@
       <c r="P94" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q94" s="2">
+      <c r="S94" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T94" s="2">
         <v>1.97</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>29</v>
       </c>
@@ -5630,11 +6021,14 @@
       <c r="P95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q95" s="2">
+      <c r="S95" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T95" s="2">
         <v>2.34</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>29</v>
       </c>
@@ -5683,11 +6077,14 @@
       <c r="P96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q96" s="2">
+      <c r="S96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T96" s="2">
         <v>3.13</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>29</v>
       </c>
@@ -5736,11 +6133,14 @@
       <c r="P97" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q97" s="2">
+      <c r="S97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T97" s="2">
         <v>3.65</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>30</v>
       </c>
@@ -5789,11 +6189,14 @@
       <c r="P98" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q98" s="2">
+      <c r="S98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T98" s="2">
         <v>1.7</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>30</v>
       </c>
@@ -5842,11 +6245,14 @@
       <c r="P99" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q99" s="2">
+      <c r="S99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T99" s="2">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>30</v>
       </c>
@@ -5895,11 +6301,14 @@
       <c r="P100" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q100" s="2">
+      <c r="S100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T100" s="2">
         <v>2.7</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>30</v>
       </c>
@@ -5948,11 +6357,14 @@
       <c r="P101" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q101" s="2">
+      <c r="S101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T101" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>30</v>
       </c>
@@ -6001,11 +6413,14 @@
       <c r="P102" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q102" s="2">
+      <c r="S102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T102" s="2">
         <v>2.9</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>30</v>
       </c>
@@ -6054,12 +6469,15 @@
       <c r="P103" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q103" s="2">
+      <c r="S103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T103" s="2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B104" s="2">
@@ -6107,11 +6525,14 @@
       <c r="P104" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q104" s="2">
+      <c r="S104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T104" s="2">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>31</v>
       </c>
@@ -6154,11 +6575,17 @@
       <c r="P105" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q105" s="2">
+      <c r="Q105" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T105" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>31</v>
       </c>
@@ -6201,11 +6628,17 @@
       <c r="P106" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q106" s="2">
+      <c r="Q106" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T106" s="2">
         <v>0.9</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>31</v>
       </c>
@@ -6248,11 +6681,17 @@
       <c r="P107" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q107" s="2">
+      <c r="Q107" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S107" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T107" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>31</v>
       </c>
@@ -6295,11 +6734,17 @@
       <c r="P108" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q108" s="2">
+      <c r="Q108" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S108" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T108" s="2">
         <v>1.25</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>31</v>
       </c>
@@ -6342,11 +6787,17 @@
       <c r="P109" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q109" s="2">
+      <c r="Q109" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S109" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T109" s="2">
         <v>1.35</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>31</v>
       </c>
@@ -6389,11 +6840,17 @@
       <c r="P110" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q110" s="2">
+      <c r="Q110" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S110" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T110" s="2">
         <v>1.5</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>32</v>
       </c>
@@ -6442,11 +6899,14 @@
       <c r="P111" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q111" s="2">
+      <c r="S111" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T111" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>32</v>
       </c>
@@ -6495,11 +6955,14 @@
       <c r="P112" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q112" s="2">
+      <c r="S112" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T112" s="2">
         <v>1.66</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>32</v>
       </c>
@@ -6548,11 +7011,14 @@
       <c r="P113" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q113" s="2">
+      <c r="S113" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T113" s="2">
         <v>2.13</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>32</v>
       </c>
@@ -6601,11 +7067,14 @@
       <c r="P114" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q114" s="2">
+      <c r="S114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T114" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>32</v>
       </c>
@@ -6654,11 +7123,14 @@
       <c r="P115" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q115" s="2">
+      <c r="S115" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T115" s="2">
         <v>1.76</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>32</v>
       </c>
@@ -6707,11 +7179,14 @@
       <c r="P116" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q116" s="2">
+      <c r="S116" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T116" s="2">
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>32</v>
       </c>
@@ -6760,11 +7235,14 @@
       <c r="P117" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q117" s="2">
+      <c r="S117" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T117" s="2">
         <v>1.2</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>32</v>
       </c>
@@ -6813,11 +7291,14 @@
       <c r="P118" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q118" s="2">
+      <c r="S118" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T118" s="2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>32</v>
       </c>
@@ -6866,11 +7347,14 @@
       <c r="P119" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q119" s="2">
+      <c r="S119" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T119" s="2">
         <v>2.9</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>32</v>
       </c>
@@ -6919,11 +7403,17 @@
       <c r="P120" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q120" s="2">
+      <c r="Q120" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S120" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T120" s="2">
         <v>2.58</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>32</v>
       </c>
@@ -6972,11 +7462,17 @@
       <c r="P121" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q121" s="2">
+      <c r="Q121" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S121" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T121" s="2">
         <v>2.62</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>32</v>
       </c>
@@ -7025,11 +7521,17 @@
       <c r="P122" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q122" s="2">
+      <c r="Q122" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S122" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T122" s="2">
         <v>2.72</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>32</v>
       </c>
@@ -7078,11 +7580,17 @@
       <c r="P123" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q123" s="2">
-        <v>2.78</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q123" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T123" s="2">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>32</v>
       </c>
@@ -7131,11 +7639,17 @@
       <c r="P124" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q124" s="2">
+      <c r="Q124" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S124" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T124" s="2">
         <v>2.81</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>32</v>
       </c>
@@ -7184,11 +7698,17 @@
       <c r="P125" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q125" s="2">
+      <c r="Q125" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S125" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T125" s="2">
         <v>3.07</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>32</v>
       </c>
@@ -7237,11 +7757,17 @@
       <c r="P126" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q126" s="2">
+      <c r="Q126" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S126" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T126" s="2">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>32</v>
       </c>
@@ -7290,11 +7816,17 @@
       <c r="P127" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q127" s="2">
+      <c r="Q127" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S127" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T127" s="2">
         <v>2.4950000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>32</v>
       </c>
@@ -7343,11 +7875,17 @@
       <c r="P128" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q128" s="2">
+      <c r="Q128" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S128" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T128" s="2">
         <v>2.5750000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>32</v>
       </c>
@@ -7396,11 +7934,17 @@
       <c r="P129" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q129" s="2">
+      <c r="Q129" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S129" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T129" s="2">
         <v>2.6</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>32</v>
       </c>
@@ -7449,11 +7993,17 @@
       <c r="P130" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q130" s="2">
+      <c r="Q130" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S130" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T130" s="2">
         <v>2.6509999999999998</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>32</v>
       </c>
@@ -7502,11 +8052,17 @@
       <c r="P131" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q131" s="2">
+      <c r="Q131" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="T131" s="2">
         <v>2.76</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>33</v>
       </c>
@@ -7556,11 +8112,14 @@
       <c r="P132" s="2">
         <v>6.8</v>
       </c>
-      <c r="Q132" s="2">
+      <c r="S132" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T132" s="2">
         <v>6.56</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>33</v>
       </c>
@@ -7610,11 +8169,14 @@
       <c r="P133" s="2">
         <v>6.8</v>
       </c>
-      <c r="Q133" s="2">
+      <c r="S133" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T133" s="2">
         <v>6.48</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>33</v>
       </c>
@@ -7664,11 +8226,14 @@
       <c r="P134" s="2">
         <v>6.8</v>
       </c>
-      <c r="Q134" s="2">
+      <c r="S134" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T134" s="2">
         <v>6.94</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>34</v>
       </c>
@@ -7718,11 +8283,17 @@
       <c r="P135" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q135" s="2">
+      <c r="R135" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S135" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T135" s="2">
         <v>0.38</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>34</v>
       </c>
@@ -7772,11 +8343,17 @@
       <c r="P136" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q136" s="2">
+      <c r="R136" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S136" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T136" s="2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>34</v>
       </c>
@@ -7826,11 +8403,17 @@
       <c r="P137" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q137" s="2">
+      <c r="R137" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T137" s="2">
         <v>0.8</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>34</v>
       </c>
@@ -7880,11 +8463,17 @@
       <c r="P138" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q138" s="2">
+      <c r="R138" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T138" s="2">
         <v>0.95</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>34</v>
       </c>
@@ -7934,11 +8523,17 @@
       <c r="P139" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q139" s="2">
+      <c r="R139" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T139" s="2">
         <v>1.25</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>34</v>
       </c>
@@ -7988,11 +8583,17 @@
       <c r="P140" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q140" s="2">
+      <c r="R140" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T140" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>34</v>
       </c>
@@ -8042,7 +8643,13 @@
       <c r="P141" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q141" s="2">
+      <c r="R141" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T141" s="2">
         <v>0.92</v>
       </c>
     </row>
